--- a/AAII_Financials/Quarterly/SCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCON_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>SCON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,82 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,131 +748,149 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>800</v>
       </c>
       <c r="K9" s="3">
         <v>900</v>
       </c>
       <c r="L9" s="3">
+        <v>800</v>
+      </c>
+      <c r="M9" s="3">
         <v>900</v>
-      </c>
-      <c r="M9" s="3">
-        <v>800</v>
       </c>
       <c r="N9" s="3">
         <v>900</v>
       </c>
       <c r="O9" s="3">
+        <v>800</v>
+      </c>
+      <c r="P9" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F10" s="3">
         <v>-800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,43 +907,45 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3">
         <v>600</v>
       </c>
       <c r="G12" s="3">
+        <v>600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>600</v>
+      </c>
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>700</v>
       </c>
       <c r="O12" s="3">
         <v>700</v>
@@ -926,8 +953,14 @@
       <c r="P12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>700</v>
+      </c>
+      <c r="R12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2700</v>
       </c>
       <c r="I17" s="3">
         <v>2300</v>
       </c>
       <c r="J17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1500</v>
       </c>
       <c r="J18" s="3">
         <v>-2200</v>
       </c>
       <c r="K18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-2600</v>
       </c>
       <c r="N18" s="3">
         <v>-2600</v>
       </c>
       <c r="O18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1203,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1215,48 +1282,54 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="E21" s="3">
-        <v>-2400</v>
+        <v>-1800</v>
       </c>
       <c r="F21" s="3">
         <v>-2100</v>
       </c>
       <c r="G21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1300</v>
       </c>
       <c r="J21" s="3">
         <v>-1900</v>
       </c>
       <c r="K21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-2100</v>
       </c>
       <c r="N21" s="3">
         <v>-2100</v>
@@ -1265,10 +1338,16 @@
         <v>-2100</v>
       </c>
       <c r="P21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1311,52 +1390,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1500</v>
       </c>
       <c r="J23" s="3">
         <v>-2200</v>
       </c>
       <c r="K23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-2600</v>
       </c>
       <c r="O23" s="3">
         <v>-2500</v>
       </c>
       <c r="P23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1399,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1500</v>
       </c>
       <c r="J26" s="3">
         <v>-2200</v>
       </c>
       <c r="K26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-2600</v>
       </c>
       <c r="O26" s="3">
         <v>-2500</v>
       </c>
       <c r="P26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1500</v>
       </c>
       <c r="J27" s="3">
         <v>-2200</v>
       </c>
       <c r="K27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-2600</v>
       </c>
       <c r="O27" s="3">
         <v>-2500</v>
       </c>
       <c r="P27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1707,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1731,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1743,60 +1882,72 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1500</v>
       </c>
       <c r="J33" s="3">
         <v>-2200</v>
       </c>
       <c r="K33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-2600</v>
       </c>
       <c r="O33" s="3">
         <v>-2500</v>
       </c>
       <c r="P33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1500</v>
       </c>
       <c r="J35" s="3">
         <v>-2200</v>
       </c>
       <c r="K35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-2600</v>
       </c>
       <c r="O35" s="3">
         <v>-2500</v>
       </c>
       <c r="P35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1968,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2056,52 +2235,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2109,7 +2300,7 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -2124,19 +2315,19 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -2144,96 +2335,114 @@
       <c r="P44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2276,60 +2485,72 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1400</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
       </c>
       <c r="H48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
@@ -2350,22 +2571,28 @@
         <v>700</v>
       </c>
       <c r="L49" s="3">
+        <v>700</v>
+      </c>
+      <c r="M49" s="3">
+        <v>700</v>
+      </c>
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1000</v>
       </c>
       <c r="P49" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2452,13 +2685,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2496,8 +2735,14 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>15200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2620,19 +2879,21 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -2653,19 +2914,25 @@
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2708,96 +2975,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
       <c r="L59" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2840,8 +3125,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -2861,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -2873,19 +3164,25 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
       </c>
       <c r="P62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1000</v>
       </c>
       <c r="I66" s="3">
         <v>900</v>
       </c>
       <c r="J66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
       </c>
       <c r="L66" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-330100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-329000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-327000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-324700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-322100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-319700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-317500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-315300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-313800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-311600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-309800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-307300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-304700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-302100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-299600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>14100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1500</v>
       </c>
       <c r="J81" s="3">
         <v>-2200</v>
       </c>
       <c r="K81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-2600</v>
       </c>
       <c r="O81" s="3">
         <v>-2500</v>
       </c>
       <c r="P81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3629,16 +4024,18 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -3653,28 +4050,34 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+      <c r="R83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-2000</v>
       </c>
       <c r="O89" s="3">
         <v>-2100</v>
       </c>
       <c r="P89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3955,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -3969,38 +4410,44 @@
       <c r="F91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4087,13 +4540,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4105,34 +4564,40 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4325,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>8000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>9200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -4413,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>6500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>7100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>SCON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -763,23 +767,23 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -789,108 +793,117 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>900</v>
       </c>
       <c r="H9" s="3">
         <v>900</v>
       </c>
       <c r="I9" s="3">
+        <v>900</v>
+      </c>
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
-      </c>
-      <c r="M9" s="3">
-        <v>900</v>
       </c>
       <c r="N9" s="3">
         <v>900</v>
       </c>
       <c r="O9" s="3">
+        <v>900</v>
+      </c>
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-900</v>
       </c>
       <c r="H10" s="3">
         <v>-900</v>
       </c>
       <c r="I10" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J10" s="3">
         <v>-700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-600</v>
       </c>
       <c r="M10" s="3">
         <v>-600</v>
       </c>
       <c r="N10" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="O10" s="3">
         <v>-800</v>
       </c>
       <c r="P10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,19 +922,20 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>600</v>
       </c>
       <c r="G12" s="3">
         <v>600</v>
@@ -930,25 +944,25 @@
         <v>600</v>
       </c>
       <c r="I12" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
       </c>
       <c r="K12" s="3">
+        <v>700</v>
+      </c>
+      <c r="L12" s="3">
         <v>400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>600</v>
       </c>
       <c r="M12" s="3">
         <v>600</v>
       </c>
       <c r="N12" s="3">
+        <v>600</v>
+      </c>
+      <c r="O12" s="3">
         <v>800</v>
-      </c>
-      <c r="O12" s="3">
-        <v>700</v>
       </c>
       <c r="P12" s="3">
         <v>700</v>
@@ -959,8 +973,11 @@
       <c r="R12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,93 +1152,97 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2600</v>
       </c>
       <c r="P17" s="3">
         <v>2600</v>
       </c>
       <c r="Q17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-2600</v>
       </c>
       <c r="O18" s="3">
         <v>-2600</v>
@@ -1221,13 +1251,16 @@
         <v>-2600</v>
       </c>
       <c r="Q18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,13 +1279,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1276,63 +1310,66 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-2100</v>
       </c>
       <c r="O21" s="3">
         <v>-2100</v>
@@ -1344,10 +1381,13 @@
         <v>-2100</v>
       </c>
       <c r="R21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2300</v>
       </c>
       <c r="I23" s="3">
         <v>-2300</v>
       </c>
       <c r="J23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-2500</v>
       </c>
       <c r="O23" s="3">
         <v>-2500</v>
       </c>
       <c r="P23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2300</v>
       </c>
       <c r="I26" s="3">
         <v>-2300</v>
       </c>
       <c r="J26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-2500</v>
       </c>
       <c r="O26" s="3">
         <v>-2500</v>
       </c>
       <c r="P26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2300</v>
       </c>
       <c r="I27" s="3">
         <v>-2300</v>
       </c>
       <c r="J27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-2500</v>
       </c>
       <c r="O27" s="3">
         <v>-2500</v>
       </c>
       <c r="P27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1846,13 +1913,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1876,78 +1946,84 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2300</v>
       </c>
       <c r="I33" s="3">
         <v>-2300</v>
       </c>
       <c r="J33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-2500</v>
       </c>
       <c r="O33" s="3">
         <v>-2500</v>
       </c>
       <c r="P33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2300</v>
       </c>
       <c r="I35" s="3">
         <v>-2300</v>
       </c>
       <c r="J35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-2500</v>
       </c>
       <c r="O35" s="3">
         <v>-2500</v>
       </c>
       <c r="P35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2241,47 +2331,50 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2300,37 +2396,37 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
       <c r="M44" s="3">
+        <v>200</v>
+      </c>
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2341,108 +2437,117 @@
       <c r="R44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2500,49 +2608,52 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2550,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -2577,13 +2688,13 @@
         <v>700</v>
       </c>
       <c r="N49" s="3">
+        <v>700</v>
+      </c>
+      <c r="O49" s="3">
         <v>800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1000</v>
       </c>
       <c r="Q49" s="3">
         <v>1000</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2700,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="E54" s="3">
         <v>2500</v>
       </c>
       <c r="F54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -2893,37 +3024,37 @@
         <v>500</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2981,108 +3115,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1000</v>
       </c>
       <c r="H59" s="3">
         <v>1000</v>
       </c>
       <c r="I59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3158,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3170,7 +3316,7 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -3179,10 +3325,13 @@
         <v>200</v>
       </c>
       <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3331,34 +3486,37 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>900</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
@@ -3367,22 +3525,25 @@
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
         <v>1100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>900</v>
       </c>
       <c r="P66" s="3">
         <v>900</v>
       </c>
       <c r="Q66" s="3">
+        <v>900</v>
+      </c>
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-330800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-330100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-329000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-327000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-324700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-322100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-319700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-317500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-315300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-313800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-311600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-309800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-307300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-304700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-302100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-299600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2300</v>
       </c>
       <c r="I81" s="3">
         <v>-2300</v>
       </c>
       <c r="J81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-2500</v>
       </c>
       <c r="O81" s="3">
         <v>-2500</v>
       </c>
       <c r="P81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4035,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -4056,28 +4255,31 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
       </c>
       <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-2000</v>
       </c>
       <c r="I89" s="3">
         <v>-2000</v>
       </c>
       <c r="J89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4416,15 +4637,15 @@
       <c r="H91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -4432,22 +4653,25 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4546,17 +4773,20 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4570,11 +4800,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4582,11 +4812,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>8000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>9200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-2000</v>
       </c>
       <c r="I102" s="3">
         <v>-2000</v>
       </c>
       <c r="J102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K102" s="3">
         <v>6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-2000</v>
       </c>
       <c r="P102" s="3">
         <v>-2000</v>
       </c>
       <c r="Q102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R102" s="3">
         <v>7100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>SCON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,17 +756,17 @@
         <v>91</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -770,23 +774,23 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -796,114 +800,123 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>900</v>
       </c>
       <c r="I9" s="3">
         <v>900</v>
       </c>
       <c r="J9" s="3">
+        <v>900</v>
+      </c>
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>900</v>
       </c>
       <c r="O9" s="3">
         <v>900</v>
       </c>
       <c r="P9" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-900</v>
       </c>
       <c r="I10" s="3">
         <v>-900</v>
       </c>
       <c r="J10" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K10" s="3">
         <v>-700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-600</v>
       </c>
       <c r="N10" s="3">
         <v>-600</v>
       </c>
       <c r="O10" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="P10" s="3">
         <v>-800</v>
       </c>
       <c r="Q10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R10" s="3">
         <v>-900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,22 +936,23 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>600</v>
       </c>
       <c r="H12" s="3">
         <v>600</v>
@@ -947,25 +961,25 @@
         <v>600</v>
       </c>
       <c r="J12" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K12" s="3">
         <v>700</v>
       </c>
       <c r="L12" s="3">
+        <v>700</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>600</v>
       </c>
       <c r="N12" s="3">
         <v>600</v>
       </c>
       <c r="O12" s="3">
+        <v>600</v>
+      </c>
+      <c r="P12" s="3">
         <v>800</v>
-      </c>
-      <c r="P12" s="3">
-        <v>700</v>
       </c>
       <c r="Q12" s="3">
         <v>700</v>
@@ -976,8 +990,11 @@
       <c r="S12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1179,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2600</v>
       </c>
       <c r="Q17" s="3">
         <v>2600</v>
       </c>
       <c r="R17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,37 +1245,37 @@
         <v>91</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2600</v>
       </c>
       <c r="P18" s="3">
         <v>-2600</v>
@@ -1254,13 +1284,16 @@
         <v>-2600</v>
       </c>
       <c r="R18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,28 +1347,31 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1342,37 +1379,37 @@
         <v>91</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-2100</v>
       </c>
       <c r="P21" s="3">
         <v>-2100</v>
@@ -1384,10 +1421,13 @@
         <v>-2100</v>
       </c>
       <c r="S21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1439,61 +1479,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2300</v>
       </c>
       <c r="J23" s="3">
         <v>-2300</v>
       </c>
       <c r="K23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-2500</v>
       </c>
       <c r="P23" s="3">
         <v>-2500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2300</v>
       </c>
       <c r="J26" s="3">
         <v>-2300</v>
       </c>
       <c r="K26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-2500</v>
       </c>
       <c r="P26" s="3">
         <v>-2500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2300</v>
       </c>
       <c r="J27" s="3">
         <v>-2300</v>
       </c>
       <c r="K27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-2500</v>
       </c>
       <c r="P27" s="3">
         <v>-2500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1949,81 +2019,87 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2300</v>
       </c>
       <c r="J33" s="3">
         <v>-2300</v>
       </c>
       <c r="K33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-2500</v>
       </c>
       <c r="P33" s="3">
         <v>-2500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2300</v>
       </c>
       <c r="J35" s="3">
         <v>-2300</v>
       </c>
       <c r="K35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-2500</v>
       </c>
       <c r="P35" s="3">
         <v>-2500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2334,50 +2424,53 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -2387,8 +2480,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2399,37 +2495,37 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
       </c>
       <c r="N44" s="3">
+        <v>200</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -2440,114 +2536,123 @@
       <c r="S44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2599,8 +2704,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2611,49 +2719,52 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2664,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
@@ -2691,13 +2802,13 @@
         <v>700</v>
       </c>
       <c r="O49" s="3">
+        <v>700</v>
+      </c>
+      <c r="P49" s="3">
         <v>800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1000</v>
       </c>
       <c r="R49" s="3">
         <v>1000</v>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2811,19 +2928,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2500</v>
       </c>
       <c r="F54" s="3">
         <v>2500</v>
       </c>
       <c r="G54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H54" s="3">
         <v>2100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3012,13 +3142,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
@@ -3027,37 +3158,37 @@
         <v>500</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3065,8 +3196,11 @@
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3118,8 +3252,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -3127,105 +3264,111 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>1000</v>
       </c>
       <c r="J59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3307,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3319,7 +3465,7 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
@@ -3328,10 +3474,13 @@
         <v>200</v>
       </c>
       <c r="S62" s="3">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3489,37 +3644,40 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>900</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
@@ -3528,22 +3686,25 @@
         <v>900</v>
       </c>
       <c r="O66" s="3">
+        <v>900</v>
+      </c>
+      <c r="P66" s="3">
         <v>1100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>900</v>
       </c>
       <c r="Q66" s="3">
         <v>900</v>
       </c>
       <c r="R66" s="3">
+        <v>900</v>
+      </c>
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-331400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-330800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-330100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-329000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-327000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-324700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-322100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-319700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-317500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-315300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-313800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-311600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-309800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-307300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-304700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-302100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-299600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2300</v>
       </c>
       <c r="J81" s="3">
         <v>-2300</v>
       </c>
       <c r="K81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-2500</v>
       </c>
       <c r="P81" s="3">
         <v>-2500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4237,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -4258,28 +4457,31 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4543,8 +4757,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
@@ -4552,52 +4769,55 @@
         <v>-600</v>
       </c>
       <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2000</v>
       </c>
       <c r="J89" s="3">
         <v>-2000</v>
       </c>
       <c r="K89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4617,38 +4837,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>91</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -4656,22 +4877,25 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4776,8 +5003,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -4785,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4803,11 +5033,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4815,11 +5045,11 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -4829,8 +5059,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5062,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>8000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>9200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-2000</v>
       </c>
       <c r="J102" s="3">
         <v>-2000</v>
       </c>
       <c r="K102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L102" s="3">
         <v>6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-2000</v>
       </c>
       <c r="Q102" s="3">
         <v>-2000</v>
       </c>
       <c r="R102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S102" s="3">
         <v>7100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>SCON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,97 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,52 +766,58 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -814,53 +827,59 @@
       <c r="E9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>900</v>
-      </c>
-      <c r="N9" s="3">
-        <v>800</v>
       </c>
       <c r="O9" s="3">
         <v>900</v>
       </c>
       <c r="P9" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q9" s="3">
         <v>900</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>800</v>
       </c>
       <c r="R9" s="3">
         <v>900</v>
       </c>
       <c r="S9" s="3">
+        <v>800</v>
+      </c>
+      <c r="T9" s="3">
+        <v>900</v>
+      </c>
+      <c r="U9" s="3">
         <v>600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -870,53 +889,59 @@
       <c r="E10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,44 +975,44 @@
       <c r="E12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>600</v>
       </c>
       <c r="J12" s="3">
         <v>600</v>
       </c>
       <c r="K12" s="3">
+        <v>600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>600</v>
+      </c>
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>800</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>700</v>
-      </c>
-      <c r="R12" s="3">
-        <v>700</v>
       </c>
       <c r="S12" s="3">
         <v>700</v>
@@ -993,8 +1020,14 @@
       <c r="T12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>700</v>
+      </c>
+      <c r="V12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,8 +1231,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,55 +1242,61 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2700</v>
       </c>
       <c r="M17" s="3">
         <v>2300</v>
       </c>
       <c r="N17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1245,55 +1304,61 @@
         <v>91</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1500</v>
       </c>
       <c r="N18" s="3">
         <v>-2200</v>
       </c>
       <c r="O18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-2600</v>
       </c>
       <c r="R18" s="3">
         <v>-2600</v>
       </c>
       <c r="S18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1350,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1362,16 +1429,22 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1379,43 +1452,43 @@
         <v>91</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2400</v>
       </c>
       <c r="J21" s="3">
         <v>-2100</v>
       </c>
       <c r="K21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1300</v>
       </c>
       <c r="N21" s="3">
         <v>-1900</v>
       </c>
       <c r="O21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-2100</v>
       </c>
       <c r="R21" s="3">
         <v>-2100</v>
@@ -1424,10 +1497,16 @@
         <v>-2100</v>
       </c>
       <c r="T21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1482,64 +1561,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1500</v>
       </c>
       <c r="N23" s="3">
         <v>-2200</v>
       </c>
       <c r="O23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-2600</v>
       </c>
       <c r="S23" s="3">
         <v>-2500</v>
       </c>
       <c r="T23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="V23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1594,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1650,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1500</v>
       </c>
       <c r="N26" s="3">
         <v>-2200</v>
       </c>
       <c r="O26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-2600</v>
       </c>
       <c r="S26" s="3">
         <v>-2500</v>
       </c>
       <c r="T26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="V26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1500</v>
       </c>
       <c r="N27" s="3">
         <v>-2200</v>
       </c>
       <c r="O27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-2600</v>
       </c>
       <c r="S27" s="3">
         <v>-2500</v>
       </c>
       <c r="T27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="V27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1818,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1874,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1930,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1986,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2022,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2034,72 +2173,84 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1500</v>
       </c>
       <c r="N33" s="3">
         <v>-2200</v>
       </c>
       <c r="O33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-2600</v>
       </c>
       <c r="S33" s="3">
         <v>-2500</v>
       </c>
       <c r="T33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="V33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2154,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1500</v>
       </c>
       <c r="N35" s="3">
         <v>-2200</v>
       </c>
       <c r="O35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-2600</v>
       </c>
       <c r="S35" s="3">
         <v>-2500</v>
       </c>
       <c r="T35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="V35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2293,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2315,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="E41" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="F41" s="3">
         <v>1800</v>
       </c>
       <c r="G41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>10500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2427,64 +2606,76 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2498,13 +2689,13 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -2519,19 +2710,19 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
@@ -2539,143 +2730,161 @@
       <c r="T44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2707,13 +2916,19 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2722,54 +2937,60 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1400</v>
       </c>
       <c r="K48" s="3">
         <v>1000</v>
       </c>
       <c r="L48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2778,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>700</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
@@ -2805,22 +3026,28 @@
         <v>700</v>
       </c>
       <c r="P49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>700</v>
+      </c>
+      <c r="R49" s="3">
         <v>800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>900</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1000</v>
       </c>
       <c r="T49" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2875,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2931,13 +3164,19 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="3">
-        <v>1600</v>
+      <c r="D52" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2946,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -2987,8 +3226,14 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3043,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F54" s="3">
         <v>3600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>15200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3121,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3143,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -3152,22 +3413,22 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3188,19 +3449,25 @@
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3255,64 +3522,76 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
       <c r="R59" s="3">
+        <v>600</v>
+      </c>
+      <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -3320,60 +3599,66 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>300</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>900</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
       </c>
       <c r="P60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>800</v>
+      </c>
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3423,13 +3708,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3456,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -3468,19 +3759,25 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
       </c>
       <c r="T62" s="3">
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3535,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3591,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3647,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>300</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1000</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
       </c>
       <c r="N66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O66" s="3">
         <v>900</v>
       </c>
       <c r="P66" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="Q66" s="3">
         <v>900</v>
       </c>
       <c r="R66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
+        <v>900</v>
+      </c>
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3725,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3781,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3837,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3893,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3949,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-332500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-331900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-331400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-330800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-330100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-329000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-327000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-324700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-322100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-319700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-317500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-315300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-313800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-311600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-309800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-307300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-304700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-302100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-299600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4061,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4117,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4173,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>11600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>14100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4285,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1500</v>
       </c>
       <c r="N81" s="3">
         <v>-2200</v>
       </c>
       <c r="O81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-2600</v>
       </c>
       <c r="S81" s="3">
         <v>-2500</v>
       </c>
       <c r="T81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="V81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4424,13 +4819,15 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4439,13 +4836,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4460,28 +4857,34 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>400</v>
       </c>
       <c r="T83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>400</v>
+      </c>
+      <c r="V83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4536,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4592,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4648,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4704,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4760,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-2000</v>
       </c>
       <c r="S89" s="3">
         <v>-2100</v>
       </c>
       <c r="T89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4838,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4868,34 +5309,40 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4950,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5006,26 +5459,32 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5036,34 +5495,40 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5084,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5140,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5196,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5252,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5308,64 +5793,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>8000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>9200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5420,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>7100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCON_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,17 +776,17 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -790,23 +794,23 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -833,53 +840,56 @@
       <c r="G9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>900</v>
       </c>
       <c r="L9" s="3">
         <v>900</v>
       </c>
       <c r="M9" s="3">
+        <v>900</v>
+      </c>
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>900</v>
       </c>
       <c r="R9" s="3">
         <v>900</v>
       </c>
       <c r="S9" s="3">
+        <v>900</v>
+      </c>
+      <c r="T9" s="3">
         <v>800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,53 +905,56 @@
       <c r="G10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-900</v>
       </c>
       <c r="L10" s="3">
         <v>-900</v>
       </c>
       <c r="M10" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N10" s="3">
         <v>-700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>-600</v>
       </c>
       <c r="Q10" s="3">
         <v>-600</v>
       </c>
       <c r="R10" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="S10" s="3">
         <v>-800</v>
       </c>
       <c r="T10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U10" s="3">
         <v>-900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -981,14 +995,14 @@
       <c r="G12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>600</v>
       </c>
       <c r="K12" s="3">
         <v>600</v>
@@ -997,25 +1011,25 @@
         <v>600</v>
       </c>
       <c r="M12" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N12" s="3">
         <v>700</v>
       </c>
       <c r="O12" s="3">
+        <v>700</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
-      </c>
-      <c r="P12" s="3">
-        <v>600</v>
       </c>
       <c r="Q12" s="3">
         <v>600</v>
       </c>
       <c r="R12" s="3">
+        <v>600</v>
+      </c>
+      <c r="S12" s="3">
         <v>800</v>
-      </c>
-      <c r="S12" s="3">
-        <v>700</v>
       </c>
       <c r="T12" s="3">
         <v>700</v>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1259,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1242,61 +1269,64 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2600</v>
       </c>
       <c r="T17" s="3">
         <v>2600</v>
       </c>
       <c r="U17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V17" s="3">
         <v>2700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1304,46 +1334,46 @@
         <v>91</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-2600</v>
       </c>
       <c r="S18" s="3">
         <v>-2600</v>
@@ -1352,13 +1382,16 @@
         <v>-2600</v>
       </c>
       <c r="U18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V18" s="3">
         <v>-2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1423,28 +1457,31 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1452,46 +1489,46 @@
         <v>91</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-2100</v>
       </c>
       <c r="S21" s="3">
         <v>-2100</v>
@@ -1503,10 +1540,13 @@
         <v>-2100</v>
       </c>
       <c r="V21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>91</v>
+      <c r="D23" s="3">
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-2300</v>
       </c>
       <c r="M23" s="3">
         <v>-2300</v>
       </c>
       <c r="N23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-2500</v>
       </c>
       <c r="S23" s="3">
         <v>-2500</v>
       </c>
       <c r="T23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>91</v>
+      <c r="D26" s="3">
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2300</v>
       </c>
       <c r="M26" s="3">
         <v>-2300</v>
       </c>
       <c r="N26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-2500</v>
       </c>
       <c r="S26" s="3">
         <v>-2500</v>
       </c>
       <c r="T26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>91</v>
+      <c r="D27" s="3">
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-2300</v>
       </c>
       <c r="M27" s="3">
         <v>-2300</v>
       </c>
       <c r="N27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-2500</v>
       </c>
       <c r="S27" s="3">
         <v>-2500</v>
       </c>
       <c r="T27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2167,90 +2237,96 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>91</v>
+      <c r="D33" s="3">
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-2300</v>
       </c>
       <c r="M33" s="3">
         <v>-2300</v>
       </c>
       <c r="N33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-2500</v>
       </c>
       <c r="S33" s="3">
         <v>-2500</v>
       </c>
       <c r="T33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>91</v>
+      <c r="D35" s="3">
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-2300</v>
       </c>
       <c r="M35" s="3">
         <v>-2300</v>
       </c>
       <c r="N35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-2500</v>
       </c>
       <c r="S35" s="3">
         <v>-2500</v>
       </c>
       <c r="T35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>1300</v>
       </c>
       <c r="F41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2612,59 +2702,62 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2695,37 +2791,37 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>100</v>
-      </c>
-      <c r="O44" s="3">
-        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
       </c>
       <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
@@ -2736,132 +2832,141 @@
       <c r="V44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="E46" s="3">
         <v>1400</v>
       </c>
       <c r="F46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2874,8 +2979,8 @@
       <c r="F47" s="3">
         <v>1600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>91</v>
+      <c r="G47" s="3">
+        <v>1600</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>91</v>
@@ -2886,8 +2991,8 @@
       <c r="J47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2922,16 +3027,19 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2943,57 +3051,60 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3005,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>700</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
@@ -3032,13 +3143,13 @@
         <v>700</v>
       </c>
       <c r="R49" s="3">
+        <v>700</v>
+      </c>
+      <c r="S49" s="3">
         <v>800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>900</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1000</v>
       </c>
       <c r="U49" s="3">
         <v>1000</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3170,16 +3287,19 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -3191,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E54" s="3">
         <v>3000</v>
       </c>
       <c r="F54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G54" s="3">
         <v>3600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2500</v>
       </c>
       <c r="I54" s="3">
         <v>2500</v>
       </c>
       <c r="J54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -3419,7 +3550,7 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
@@ -3428,37 +3559,37 @@
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3528,8 +3662,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -3537,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3546,57 +3683,60 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1000</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
       </c>
       <c r="M59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
@@ -3605,55 +3745,58 @@
         <v>300</v>
       </c>
       <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3661,7 +3804,7 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3714,16 +3857,19 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3753,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -3765,7 +3911,7 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
@@ -3774,10 +3920,13 @@
         <v>200</v>
       </c>
       <c r="V62" s="3">
+        <v>200</v>
+      </c>
+      <c r="W62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3962,8 +4117,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
@@ -3971,37 +4129,37 @@
         <v>700</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
       </c>
       <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>900</v>
       </c>
       <c r="P66" s="3">
         <v>900</v>
@@ -4010,22 +4168,25 @@
         <v>900</v>
       </c>
       <c r="R66" s="3">
+        <v>900</v>
+      </c>
+      <c r="S66" s="3">
         <v>1100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>900</v>
       </c>
       <c r="T66" s="3">
         <v>900</v>
       </c>
       <c r="U66" s="3">
+        <v>900</v>
+      </c>
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-333100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-332500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-331900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-331400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-330800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-330100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-329000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-327000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-324700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-322100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-319700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-317500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-315300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-313800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-311600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-309800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-307300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-304700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-302100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-299600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>91</v>
+      <c r="D81" s="3">
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-2300</v>
       </c>
       <c r="M81" s="3">
         <v>-2300</v>
       </c>
       <c r="N81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-2500</v>
       </c>
       <c r="S81" s="3">
         <v>-2500</v>
       </c>
       <c r="T81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4821,13 +5019,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>91</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4842,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4863,28 +5062,31 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>400</v>
       </c>
       <c r="R83" s="3">
         <v>400</v>
       </c>
       <c r="S83" s="3">
+        <v>400</v>
+      </c>
+      <c r="T83" s="3">
         <v>500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
       </c>
       <c r="F89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
       </c>
       <c r="H89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-2000</v>
       </c>
       <c r="M89" s="3">
         <v>-2000</v>
       </c>
       <c r="N89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5315,11 +5536,11 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -5327,22 +5548,25 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5465,13 +5692,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>91</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5483,11 +5713,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5501,11 +5731,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5513,11 +5743,11 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>8000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>9200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-2000</v>
       </c>
       <c r="M102" s="3">
         <v>-2000</v>
       </c>
       <c r="N102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O102" s="3">
         <v>6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-2000</v>
       </c>
       <c r="T102" s="3">
         <v>-2000</v>
       </c>
       <c r="U102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V102" s="3">
         <v>7100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
